--- a/biology/Histoire de la zoologie et de la botanique/Jean-Baptiste_Vérany/Jean-Baptiste_Vérany.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Baptiste_Vérany/Jean-Baptiste_Vérany.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_V%C3%A9rany</t>
+          <t>Jean-Baptiste_Vérany</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jean-Baptiste Vérany, né en 1800 à Nice (département des Alpes-Maritimes sous la 1re République) et mort en 1865 à Nice, est un pharmacien et naturaliste français spécialisé dans l'étude des céphalopodes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jean-Baptiste Vérany, né en 1800 à Nice (département des Alpes-Maritimes sous la 1re République) et mort en 1865 à Nice, est un pharmacien et naturaliste français spécialisé dans l'étude des céphalopodes.
 En 1846, il fonde le Muséum d'histoire naturelle de Nice avec Jean-Baptiste Barla et Antoine Risso. Il a découvert et décrit de nombreuses espèces.
 Le calmar Chiroteuthis veranyi a été nommé en son hommage en 1834 par d'Audebert de Férussac.
 </t>
